--- a/src/main/resources/rezultate algoritmi.xlsx
+++ b/src/main/resources/rezultate algoritmi.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="9">
   <si>
     <t>2 clase</t>
   </si>
@@ -78,10 +78,10 @@
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -386,10 +386,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:H27"/>
+  <dimension ref="A2:V27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K10" sqref="K10"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="N19" sqref="N19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -398,12 +398,12 @@
     <col min="2" max="2" width="25.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:22" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:22" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>4</v>
       </c>
@@ -422,134 +422,344 @@
       <c r="H3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
+      <c r="J3">
+        <v>5</v>
+      </c>
+      <c r="K3">
+        <v>10</v>
+      </c>
+      <c r="L3">
+        <v>20</v>
+      </c>
+      <c r="M3">
+        <v>50</v>
+      </c>
+      <c r="O3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q3">
+        <v>5</v>
+      </c>
+      <c r="R3">
+        <v>10</v>
+      </c>
+      <c r="S3">
+        <v>20</v>
+      </c>
+      <c r="T3">
+        <v>50</v>
+      </c>
+      <c r="V3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
         <v>6</v>
       </c>
       <c r="B6" t="s">
         <v>0</v>
       </c>
-      <c r="C6" s="2">
+      <c r="C6" s="1">
+        <v>0.85</v>
+      </c>
+      <c r="D6" s="1">
+        <v>0.9</v>
+      </c>
+      <c r="E6" s="1">
+        <v>0.87</v>
+      </c>
+      <c r="F6" s="1">
+        <v>0.9</v>
+      </c>
+      <c r="H6">
+        <v>40</v>
+      </c>
+      <c r="J6" s="1">
+        <v>0.9</v>
+      </c>
+      <c r="K6" s="1">
+        <v>0.93</v>
+      </c>
+      <c r="L6" s="1">
+        <v>0.9</v>
+      </c>
+      <c r="M6" s="1">
+        <v>0.93</v>
+      </c>
+      <c r="O6">
+        <v>60</v>
+      </c>
+      <c r="Q6" s="1">
         <v>0.91</v>
       </c>
-      <c r="D6" s="2">
+      <c r="R6" s="1">
         <v>0.91</v>
       </c>
-      <c r="E6" s="2">
+      <c r="S6" s="1">
         <v>0.92</v>
       </c>
-      <c r="F6" s="2">
+      <c r="T6" s="1">
         <v>0.95</v>
       </c>
-      <c r="H6">
+      <c r="V6">
         <v>100</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="1"/>
+    <row r="7" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A7" s="2"/>
       <c r="B7" t="s">
         <v>1</v>
       </c>
-      <c r="C7" s="2">
+      <c r="C7" s="1">
+        <v>0.7</v>
+      </c>
+      <c r="D7" s="1">
+        <v>0.75</v>
+      </c>
+      <c r="E7" s="1">
+        <v>0.76</v>
+      </c>
+      <c r="F7" s="1">
+        <v>0.9</v>
+      </c>
+      <c r="H7">
+        <v>60</v>
+      </c>
+      <c r="J7" s="1">
+        <v>0.77</v>
+      </c>
+      <c r="K7" s="1">
         <v>0.78</v>
       </c>
-      <c r="D7" s="2">
+      <c r="L7" s="1">
         <v>0.83</v>
       </c>
-      <c r="E7" s="2">
+      <c r="M7" s="1">
+        <v>0.92</v>
+      </c>
+      <c r="O7">
+        <v>90</v>
+      </c>
+      <c r="Q7" s="1">
+        <v>0.78</v>
+      </c>
+      <c r="R7" s="1">
+        <v>0.83</v>
+      </c>
+      <c r="S7" s="1">
         <v>0.86</v>
       </c>
-      <c r="F7" s="2">
+      <c r="T7" s="1">
         <v>0.93</v>
       </c>
-      <c r="H7">
+      <c r="V7">
         <v>150</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="1"/>
+    <row r="8" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A8" s="2"/>
       <c r="B8" t="s">
         <v>2</v>
       </c>
-      <c r="C8" s="2">
+      <c r="C8" s="1">
+        <v>0.53</v>
+      </c>
+      <c r="D8" s="1">
+        <v>0.66</v>
+      </c>
+      <c r="E8" s="1">
+        <v>0.65</v>
+      </c>
+      <c r="F8" s="1">
+        <v>0.86</v>
+      </c>
+      <c r="H8">
+        <v>80</v>
+      </c>
+      <c r="J8" s="1">
+        <v>0.63</v>
+      </c>
+      <c r="K8" s="1">
+        <v>0.7</v>
+      </c>
+      <c r="L8" s="1">
+        <v>0.75</v>
+      </c>
+      <c r="M8" s="1">
+        <v>0.88</v>
+      </c>
+      <c r="O8">
+        <v>120</v>
+      </c>
+      <c r="Q8" s="1">
         <v>0.61</v>
       </c>
-      <c r="D8" s="2">
+      <c r="R8" s="1">
         <v>0.7</v>
       </c>
-      <c r="E8" s="2">
+      <c r="S8" s="1">
         <v>0.77</v>
       </c>
-      <c r="F8" s="2">
+      <c r="T8" s="1">
         <v>0.86</v>
       </c>
-      <c r="H8">
+      <c r="V8">
         <v>200</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="s">
+    <row r="10" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
         <v>7</v>
       </c>
       <c r="B10" t="s">
         <v>0</v>
       </c>
-      <c r="C10" s="2">
+      <c r="C10" s="1">
+        <v>0.95</v>
+      </c>
+      <c r="D10" s="1">
+        <v>0.92</v>
+      </c>
+      <c r="E10" s="1">
+        <v>0.95</v>
+      </c>
+      <c r="F10" s="1">
+        <v>0.95</v>
+      </c>
+      <c r="H10">
+        <v>40</v>
+      </c>
+      <c r="J10" s="1">
+        <v>0.96</v>
+      </c>
+      <c r="K10" s="1">
+        <v>0.95</v>
+      </c>
+      <c r="L10" s="1">
+        <v>0.96</v>
+      </c>
+      <c r="M10" s="1">
+        <v>0.96</v>
+      </c>
+      <c r="O10">
+        <v>60</v>
+      </c>
+      <c r="Q10" s="1">
         <v>0.98</v>
       </c>
-      <c r="D10" s="2">
+      <c r="R10" s="1">
         <v>0.97</v>
       </c>
-      <c r="E10" s="2">
+      <c r="S10" s="1">
         <v>0.97</v>
       </c>
-      <c r="F10" s="2">
+      <c r="T10" s="1">
         <v>0.97</v>
       </c>
-      <c r="H10">
+      <c r="V10">
         <v>100</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="1"/>
+    <row r="11" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A11" s="2"/>
       <c r="B11" t="s">
         <v>1</v>
       </c>
-      <c r="C11" s="2">
+      <c r="C11" s="1">
+        <v>0.76</v>
+      </c>
+      <c r="D11" s="1">
+        <v>0.71</v>
+      </c>
+      <c r="E11" s="1">
+        <v>0.6</v>
+      </c>
+      <c r="F11" s="1">
+        <v>0.78</v>
+      </c>
+      <c r="H11">
+        <v>60</v>
+      </c>
+      <c r="J11" s="1">
+        <v>0.82</v>
+      </c>
+      <c r="K11" s="1">
+        <v>0.77</v>
+      </c>
+      <c r="L11" s="1">
+        <v>0.63</v>
+      </c>
+      <c r="M11" s="1">
+        <v>0.83</v>
+      </c>
+      <c r="O11">
+        <v>90</v>
+      </c>
+      <c r="Q11" s="1">
         <v>0.84</v>
       </c>
-      <c r="D11" s="2">
+      <c r="R11" s="1">
         <v>0.76</v>
       </c>
-      <c r="E11" s="2">
+      <c r="S11" s="1">
         <v>0.68</v>
       </c>
-      <c r="F11" s="2">
+      <c r="T11" s="1">
         <v>0.84</v>
       </c>
-      <c r="H11">
+      <c r="V11">
         <v>150</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="1"/>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A12" s="2"/>
       <c r="B12" t="s">
         <v>2</v>
       </c>
-      <c r="C12" s="2">
+      <c r="C12" s="1">
+        <v>0.53</v>
+      </c>
+      <c r="D12" s="1">
+        <v>0.66</v>
+      </c>
+      <c r="E12" s="1">
+        <v>0.72</v>
+      </c>
+      <c r="F12" s="1">
+        <v>0.7</v>
+      </c>
+      <c r="H12">
+        <v>80</v>
+      </c>
+      <c r="J12" s="1">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="K12" s="1">
+        <v>0.73</v>
+      </c>
+      <c r="L12" s="1">
+        <v>0.78</v>
+      </c>
+      <c r="M12" s="1">
+        <v>0.75</v>
+      </c>
+      <c r="O12">
+        <v>120</v>
+      </c>
+      <c r="Q12" s="1">
         <v>0.61</v>
       </c>
-      <c r="D12" s="2">
-        <v>0.71</v>
-      </c>
-      <c r="E12" s="2">
+      <c r="R12" s="1">
+        <v>0.73</v>
+      </c>
+      <c r="S12" s="1">
         <v>0.78</v>
       </c>
-      <c r="F12" s="2">
+      <c r="T12" s="1">
         <v>0.76</v>
       </c>
-      <c r="H12">
+      <c r="V12">
         <v>200</v>
       </c>
     </row>
@@ -579,22 +789,22 @@
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A21" s="1" t="s">
+      <c r="A21" s="2" t="s">
         <v>6</v>
       </c>
       <c r="B21" t="s">
         <v>0</v>
       </c>
-      <c r="C21" s="2">
+      <c r="C21" s="1">
         <v>0.89</v>
       </c>
-      <c r="D21" s="2">
+      <c r="D21" s="1">
         <v>0.89</v>
       </c>
-      <c r="E21" s="2">
+      <c r="E21" s="1">
         <v>0.89</v>
       </c>
-      <c r="F21" s="2">
+      <c r="F21" s="1">
         <v>0.97</v>
       </c>
       <c r="H21">
@@ -602,20 +812,20 @@
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A22" s="1"/>
+      <c r="A22" s="2"/>
       <c r="B22" t="s">
         <v>1</v>
       </c>
-      <c r="C22" s="2">
+      <c r="C22" s="1">
         <v>0.78</v>
       </c>
-      <c r="D22" s="2">
+      <c r="D22" s="1">
         <v>0.8</v>
       </c>
-      <c r="E22" s="2">
+      <c r="E22" s="1">
         <v>0.9</v>
       </c>
-      <c r="F22" s="2">
+      <c r="F22" s="1">
         <v>0.98</v>
       </c>
       <c r="H22">
@@ -623,20 +833,20 @@
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A23" s="1"/>
+      <c r="A23" s="2"/>
       <c r="B23" t="s">
         <v>2</v>
       </c>
-      <c r="C23" s="2">
+      <c r="C23" s="1">
         <v>0.72</v>
       </c>
-      <c r="D23" s="2">
+      <c r="D23" s="1">
         <v>0.72</v>
       </c>
-      <c r="E23" s="2">
+      <c r="E23" s="1">
         <v>0.86</v>
       </c>
-      <c r="F23" s="2">
+      <c r="F23" s="1">
         <v>0.95</v>
       </c>
       <c r="H23">
@@ -644,22 +854,22 @@
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A25" s="1" t="s">
+      <c r="A25" s="2" t="s">
         <v>7</v>
       </c>
       <c r="B25" t="s">
         <v>0</v>
       </c>
-      <c r="C25" s="2">
+      <c r="C25" s="1">
         <v>0.48</v>
       </c>
-      <c r="D25" s="2">
+      <c r="D25" s="1">
         <v>0.48</v>
       </c>
-      <c r="E25" s="2">
+      <c r="E25" s="1">
         <v>0.48</v>
       </c>
-      <c r="F25" s="2">
+      <c r="F25" s="1">
         <v>0.48</v>
       </c>
       <c r="H25">
@@ -667,20 +877,20 @@
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A26" s="1"/>
+      <c r="A26" s="2"/>
       <c r="B26" t="s">
         <v>1</v>
       </c>
-      <c r="C26" s="2">
+      <c r="C26" s="1">
         <v>0.32</v>
       </c>
-      <c r="D26" s="2">
+      <c r="D26" s="1">
         <v>0.32</v>
       </c>
-      <c r="E26" s="2">
+      <c r="E26" s="1">
         <v>0.32</v>
       </c>
-      <c r="F26" s="2">
+      <c r="F26" s="1">
         <v>0.32</v>
       </c>
       <c r="H26">
@@ -688,20 +898,20 @@
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A27" s="1"/>
+      <c r="A27" s="2"/>
       <c r="B27" t="s">
         <v>2</v>
       </c>
-      <c r="C27" s="2">
+      <c r="C27" s="1">
         <v>0.24</v>
       </c>
-      <c r="D27" s="2">
+      <c r="D27" s="1">
         <v>0.24</v>
       </c>
-      <c r="E27" s="2">
+      <c r="E27" s="1">
         <v>0.24</v>
       </c>
-      <c r="F27" s="2">
+      <c r="F27" s="1">
         <v>0.24</v>
       </c>
       <c r="H27">
